--- a/Sklad3/templates/rs_0504143.xlsx
+++ b/Sklad3/templates/rs_0504143.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
   <si>
     <t xml:space="preserve">Утверждаю</t>
   </si>
@@ -218,16 +218,19 @@
     <t xml:space="preserve">Итого</t>
   </si>
   <si>
+    <t xml:space="preserve">$SHEET_COUNT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Х</t>
   </si>
   <si>
-    <t xml:space="preserve">$TOTAL_SUM</t>
+    <t xml:space="preserve">$SHEET_SUM</t>
   </si>
   <si>
     <t xml:space="preserve">Всего по настоящему акту выбыло</t>
   </si>
   <si>
-    <t xml:space="preserve">$TOTAL_COUNT_NAME</t>
+    <t xml:space="preserve">$SHEET_COUNT_NAME</t>
   </si>
   <si>
     <t xml:space="preserve">(количество прописью)</t>
@@ -236,7 +239,7 @@
     <t xml:space="preserve">предметов на общую сумму</t>
   </si>
   <si>
-    <t xml:space="preserve">$TOTAL_SUM_NAME</t>
+    <t xml:space="preserve">$SHEET_SUM_NAME</t>
   </si>
   <si>
     <t xml:space="preserve">(прописью)</t>
@@ -306,6 +309,9 @@
   </si>
   <si>
     <t xml:space="preserve">использования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$EDISM</t>
   </si>
   <si>
     <t xml:space="preserve">(сумма прописью)</t>
@@ -327,7 +333,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -349,6 +355,87 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Cyr"/>
       <family val="0"/>
       <charset val="204"/>
     </font>
@@ -384,20 +471,77 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -513,7 +657,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -537,305 +681,429 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -848,14 +1116,15 @@
   <dimension ref="A1:BL58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="Q45" activeCellId="0" sqref="Q45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="61" min="1" style="1" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="1" width="0.811224489795918"/>
-    <col collapsed="false" hidden="false" max="257" min="63" style="1" width="1.08163265306122"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="1" style="1" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="0.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="63" style="1" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,7 +3321,9 @@
       <c r="AC40" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="AD40" s="60"/>
+      <c r="AD40" s="60" t="s">
+        <v>65</v>
+      </c>
       <c r="AE40" s="60"/>
       <c r="AF40" s="60"/>
       <c r="AG40" s="60"/>
@@ -3060,7 +3331,7 @@
       <c r="AI40" s="60"/>
       <c r="AJ40" s="60"/>
       <c r="AK40" s="61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL40" s="61"/>
       <c r="AM40" s="61"/>
@@ -3069,7 +3340,7 @@
       <c r="AP40" s="61"/>
       <c r="AQ40" s="61"/>
       <c r="AR40" s="55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AS40" s="55"/>
       <c r="AT40" s="55"/>
@@ -3094,10 +3365,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T42" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U42" s="19"/>
       <c r="V42" s="19"/>
@@ -3165,7 +3436,7 @@
       <c r="R43" s="64"/>
       <c r="S43" s="64"/>
       <c r="T43" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U43" s="32"/>
       <c r="V43" s="32"/>
@@ -3214,10 +3485,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q44" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
@@ -3285,7 +3556,7 @@
       <c r="O45" s="64"/>
       <c r="P45" s="64"/>
       <c r="Q45" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R45" s="32"/>
       <c r="S45" s="32"/>
@@ -3337,7 +3608,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
@@ -3459,10 +3730,10 @@
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O49" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P49" s="23"/>
       <c r="Q49" s="23"/>
@@ -3489,7 +3760,7 @@
       <c r="AO49" s="19"/>
       <c r="AP49" s="19"/>
       <c r="AT49" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AU49" s="19"/>
       <c r="AV49" s="19"/>
@@ -3527,7 +3798,7 @@
       <c r="N50" s="64"/>
       <c r="O50" s="64"/>
       <c r="P50" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q50" s="32"/>
       <c r="R50" s="32"/>
@@ -3561,7 +3832,7 @@
       <c r="AR50" s="64"/>
       <c r="AS50" s="64"/>
       <c r="AT50" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU50" s="32"/>
       <c r="AV50" s="32"/>
@@ -3584,10 +3855,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O51" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -3614,7 +3885,7 @@
       <c r="AO51" s="19"/>
       <c r="AP51" s="19"/>
       <c r="AT51" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AU51" s="19"/>
       <c r="AV51" s="19"/>
@@ -3652,7 +3923,7 @@
       <c r="N52" s="31"/>
       <c r="O52" s="31"/>
       <c r="P52" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q52" s="32"/>
       <c r="R52" s="32"/>
@@ -3686,7 +3957,7 @@
       <c r="AR52" s="64"/>
       <c r="AS52" s="64"/>
       <c r="AT52" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU52" s="32"/>
       <c r="AV52" s="32"/>
@@ -3709,7 +3980,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P53" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
@@ -3773,7 +4044,7 @@
       <c r="N54" s="31"/>
       <c r="O54" s="31"/>
       <c r="P54" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q54" s="32"/>
       <c r="R54" s="32"/>
@@ -3807,7 +4078,7 @@
       <c r="AR54" s="64"/>
       <c r="AS54" s="64"/>
       <c r="AT54" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU54" s="32"/>
       <c r="AV54" s="32"/>
@@ -3830,7 +4101,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P55" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
@@ -3856,7 +4127,7 @@
       <c r="AO55" s="19"/>
       <c r="AP55" s="19"/>
       <c r="AT55" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AU55" s="19"/>
       <c r="AV55" s="19"/>
@@ -3894,7 +4165,7 @@
       <c r="N56" s="31"/>
       <c r="O56" s="31"/>
       <c r="P56" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q56" s="32"/>
       <c r="R56" s="32"/>
@@ -3928,7 +4199,7 @@
       <c r="AR56" s="64"/>
       <c r="AS56" s="64"/>
       <c r="AT56" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU56" s="32"/>
       <c r="AV56" s="32"/>
@@ -4011,7 +4282,7 @@
       <c r="N58" s="31"/>
       <c r="O58" s="31"/>
       <c r="P58" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q58" s="32"/>
       <c r="R58" s="32"/>
@@ -4045,7 +4316,7 @@
       <c r="AR58" s="64"/>
       <c r="AS58" s="64"/>
       <c r="AT58" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU58" s="32"/>
       <c r="AV58" s="32"/>
@@ -4272,22 +4543,23 @@
   <dimension ref="A1:BL39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="AS21" activeCellId="0" sqref="AS21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="1.08163265306122"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="1" style="1" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BL1" s="65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -4355,7 +4627,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -4429,7 +4701,7 @@
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="E5" s="44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
@@ -4447,7 +4719,7 @@
       <c r="S5" s="44"/>
       <c r="T5" s="44"/>
       <c r="U5" s="43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V5" s="43"/>
       <c r="W5" s="43"/>
@@ -4487,7 +4759,7 @@
       <c r="AY5" s="43"/>
       <c r="AZ5" s="43"/>
       <c r="BA5" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BB5" s="43"/>
       <c r="BC5" s="43"/>
@@ -4509,7 +4781,7 @@
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
       <c r="E6" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="50"/>
@@ -4523,13 +4795,13 @@
       <c r="O6" s="50"/>
       <c r="P6" s="50"/>
       <c r="Q6" s="50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R6" s="50"/>
       <c r="S6" s="50"/>
       <c r="T6" s="50"/>
       <c r="U6" s="50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V6" s="50"/>
       <c r="W6" s="50"/>
@@ -4567,7 +4839,7 @@
       <c r="AY6" s="50"/>
       <c r="AZ6" s="50"/>
       <c r="BA6" s="50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BB6" s="50"/>
       <c r="BC6" s="50"/>
@@ -4664,11 +4936,15 @@
       <c r="BL7" s="50"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58"/>
+      <c r="A8" s="58" t="s">
+        <v>58</v>
+      </c>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
-      <c r="E8" s="66"/>
+      <c r="E8" s="66" t="s">
+        <v>59</v>
+      </c>
       <c r="F8" s="66"/>
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
@@ -4684,7 +4960,9 @@
       <c r="R8" s="67"/>
       <c r="S8" s="67"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="67" t="s">
+        <v>96</v>
+      </c>
       <c r="V8" s="67"/>
       <c r="W8" s="67"/>
       <c r="X8" s="67"/>
@@ -4692,7 +4970,9 @@
       <c r="Z8" s="67"/>
       <c r="AA8" s="67"/>
       <c r="AB8" s="67"/>
-      <c r="AC8" s="60"/>
+      <c r="AC8" s="60" t="s">
+        <v>60</v>
+      </c>
       <c r="AD8" s="60"/>
       <c r="AE8" s="60"/>
       <c r="AF8" s="60"/>
@@ -4700,7 +4980,9 @@
       <c r="AH8" s="60"/>
       <c r="AI8" s="60"/>
       <c r="AJ8" s="60"/>
-      <c r="AK8" s="60"/>
+      <c r="AK8" s="60" t="s">
+        <v>61</v>
+      </c>
       <c r="AL8" s="60"/>
       <c r="AM8" s="60"/>
       <c r="AN8" s="60"/>
@@ -4708,7 +4990,9 @@
       <c r="AP8" s="60"/>
       <c r="AQ8" s="60"/>
       <c r="AR8" s="60"/>
-      <c r="AS8" s="60"/>
+      <c r="AS8" s="60" t="s">
+        <v>62</v>
+      </c>
       <c r="AT8" s="60"/>
       <c r="AU8" s="60"/>
       <c r="AV8" s="60"/>
@@ -5394,7 +5678,9 @@
       <c r="B19" s="58"/>
       <c r="C19" s="58"/>
       <c r="D19" s="58"/>
-      <c r="E19" s="66"/>
+      <c r="E19" s="66" t="s">
+        <v>63</v>
+      </c>
       <c r="F19" s="66"/>
       <c r="G19" s="66"/>
       <c r="H19" s="66"/>
@@ -5486,7 +5772,9 @@
       <c r="AB20" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="AC20" s="60"/>
+      <c r="AC20" s="60" t="s">
+        <v>65</v>
+      </c>
       <c r="AD20" s="60"/>
       <c r="AE20" s="60"/>
       <c r="AF20" s="60"/>
@@ -5495,7 +5783,7 @@
       <c r="AI20" s="60"/>
       <c r="AJ20" s="60"/>
       <c r="AK20" s="69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL20" s="69"/>
       <c r="AM20" s="69"/>
@@ -5504,7 +5792,9 @@
       <c r="AP20" s="69"/>
       <c r="AQ20" s="69"/>
       <c r="AR20" s="69"/>
-      <c r="AS20" s="60"/>
+      <c r="AS20" s="60" t="s">
+        <v>67</v>
+      </c>
       <c r="AT20" s="60"/>
       <c r="AU20" s="60"/>
       <c r="AV20" s="60"/>
@@ -5526,7 +5816,9 @@
       <c r="BL20" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19"/>
+      <c r="A22" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -5593,7 +5885,7 @@
     </row>
     <row r="23" s="64" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -5661,7 +5953,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
@@ -5709,7 +6001,7 @@
     </row>
     <row r="28" s="64" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P28" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="32"/>
       <c r="R28" s="32"/>
@@ -5737,7 +6029,7 @@
       <c r="AO28" s="32"/>
       <c r="AP28" s="32"/>
       <c r="AT28" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU28" s="32"/>
       <c r="AV28" s="32"/>
@@ -5760,7 +6052,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
@@ -5808,7 +6100,7 @@
     </row>
     <row r="30" s="31" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P30" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="32"/>
       <c r="R30" s="32"/>
@@ -5842,7 +6134,7 @@
       <c r="AR30" s="64"/>
       <c r="AS30" s="64"/>
       <c r="AT30" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU30" s="32"/>
       <c r="AV30" s="32"/>
@@ -5910,7 +6202,7 @@
     </row>
     <row r="32" s="31" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P32" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="32"/>
       <c r="R32" s="32"/>
@@ -5944,7 +6236,7 @@
       <c r="AR32" s="64"/>
       <c r="AS32" s="64"/>
       <c r="AT32" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU32" s="32"/>
       <c r="AV32" s="32"/>
@@ -6012,7 +6304,7 @@
     </row>
     <row r="34" s="31" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P34" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="32"/>
       <c r="R34" s="32"/>
@@ -6046,7 +6338,7 @@
       <c r="AR34" s="64"/>
       <c r="AS34" s="64"/>
       <c r="AT34" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU34" s="32"/>
       <c r="AV34" s="32"/>
@@ -6069,7 +6361,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AM36" s="30"/>
       <c r="AN36" s="30"/>
@@ -6108,7 +6400,7 @@
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" s="39" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU38" s="70" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AW38" s="71"/>
       <c r="AX38" s="71"/>
